--- a/weekly_scoreboard.xlsx
+++ b/weekly_scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD93D9-4D06-4583-9858-38568EB861A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B2F4D-1AFC-4CEA-B14E-D47AC55B35B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07359F3C-1D8A-42FA-8EC6-3A18642EA847}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,275 +517,275 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <f>6+6+3</f>
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <f>B2*5</f>
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/C2*100</f>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2/D2*100</f>
+        <v>11.904761904761903</v>
+      </c>
+      <c r="H2" s="2">
+        <f>IF(E2&lt;100,E2/10,10)</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="I2" s="2">
+        <f>G2/10</f>
+        <v>1.1904761904761902</v>
+      </c>
+      <c r="J2" s="2">
+        <f>SUM(H2:I2)/2</f>
+        <v>3.3952380952380956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <f>7+7+7+7+3+3</f>
         <v>34</v>
       </c>
-      <c r="C2">
-        <f>B2*5</f>
+      <c r="C3">
+        <f>B3*5</f>
         <v>170</v>
       </c>
-      <c r="D2">
-        <v>96</v>
-      </c>
-      <c r="E2" s="1">
-        <f>D2/C2*100</f>
-        <v>56.470588235294116</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <f>F2/D2*100</f>
-        <v>10.416666666666668</v>
-      </c>
-      <c r="H2" s="2">
-        <f>IF(E2&lt;100,E2/10,10)</f>
-        <v>5.6470588235294112</v>
-      </c>
-      <c r="I2" s="2">
-        <f>G2/10</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="J2" s="2">
-        <f>SUM(H2:I2)/2</f>
-        <v>3.3443627450980391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3/C3*100</f>
+        <v>66.470588235294116</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3">
+        <f>F3/D3*100</f>
+        <v>11.504424778761061</v>
+      </c>
+      <c r="H3" s="2">
+        <f>IF(E3&lt;100,E3/10,10)</f>
+        <v>6.6470588235294112</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3/10</f>
+        <v>1.1504424778761062</v>
+      </c>
+      <c r="J3" s="2">
+        <f>SUM(H3:I3)/2</f>
+        <v>3.8987506507027589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>6+6+6+5+5+3</f>
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <f>B4*5</f>
+        <v>155</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4/C4*100</f>
+        <v>65.806451612903231</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <f>F4/D4*100</f>
+        <v>12.745098039215685</v>
+      </c>
+      <c r="H4" s="2">
+        <f>IF(E4&lt;100,E4/10,10)</f>
+        <v>6.580645161290323</v>
+      </c>
+      <c r="I4" s="2">
+        <f>G4/10</f>
+        <v>1.2745098039215685</v>
+      </c>
+      <c r="J4" s="2">
+        <f>SUM(H4:I4)/2</f>
+        <v>3.9275774826059457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <f>6+6+6+3</f>
         <v>21</v>
       </c>
-      <c r="C3">
-        <f>B3*5</f>
+      <c r="C5">
+        <f>B5*5</f>
         <v>105</v>
       </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1">
-        <f>D3/C3*100</f>
-        <v>68.571428571428569</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3">
-        <f>F3/D3*100</f>
-        <v>9.7222222222222232</v>
-      </c>
-      <c r="H3" s="2">
-        <f>IF(E3&lt;100,E3/10,10)</f>
-        <v>6.8571428571428568</v>
-      </c>
-      <c r="I3" s="2">
-        <f>G3/10</f>
-        <v>0.97222222222222232</v>
-      </c>
-      <c r="J3" s="2">
-        <f>SUM(H3:I3)/2</f>
-        <v>3.9146825396825395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5/C5*100</f>
+        <v>67.61904761904762</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <f>F5/D5*100</f>
+        <v>14.084507042253522</v>
+      </c>
+      <c r="H5" s="2">
+        <f>IF(E5&lt;100,E5/10,10)</f>
+        <v>6.7619047619047619</v>
+      </c>
+      <c r="I5" s="2">
+        <f>G5/10</f>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="J5" s="2">
+        <f>SUM(H5:I5)/2</f>
+        <v>4.0851777330650574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <f>6+6</f>
         <v>12</v>
       </c>
-      <c r="C4">
-        <f>B4*5</f>
+      <c r="C6">
+        <f>B6*5</f>
         <v>60</v>
       </c>
-      <c r="D4">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1">
-        <f>D4/C4*100</f>
-        <v>71.666666666666671</v>
-      </c>
-      <c r="F4">
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6/C6*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6/D6*100</f>
         <v>6</v>
       </c>
-      <c r="G4" s="3">
-        <f>F4/D4*100</f>
-        <v>13.953488372093023</v>
-      </c>
-      <c r="H4" s="2">
-        <f>IF(E4&lt;100,E4/10,10)</f>
-        <v>7.166666666666667</v>
-      </c>
-      <c r="I4" s="2">
-        <f>G4/10</f>
-        <v>1.3953488372093024</v>
-      </c>
-      <c r="J4" s="2">
-        <f>SUM(H4:I4)/2</f>
-        <v>4.2810077519379846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H6" s="2">
+        <f>IF(E6&lt;100,E6/10,10)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="I6" s="2">
+        <f>G6/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="2">
+        <f>SUM(H6:I6)/2</f>
+        <v>4.4666666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>5+6+6</f>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>B7*5</f>
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7/C7*100</f>
+        <v>87.058823529411768</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <f>F7/D7*100</f>
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="H7" s="2">
+        <f>IF(E7&lt;100,E7/10,10)</f>
+        <v>8.7058823529411775</v>
+      </c>
+      <c r="I7" s="2">
+        <f>G7/10</f>
+        <v>0.54054054054054057</v>
+      </c>
+      <c r="J7" s="2">
+        <f>SUM(H7:I7)/2</f>
+        <v>4.6232114467408589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <f>5+5+6+6+3</f>
         <v>25</v>
       </c>
-      <c r="C5">
-        <f>B5*5</f>
-        <v>125</v>
-      </c>
-      <c r="D5">
-        <v>92</v>
-      </c>
-      <c r="E5" s="1">
-        <f>D5/C5*100</f>
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3">
-        <f>F5/D5*100</f>
-        <v>17.391304347826086</v>
-      </c>
-      <c r="H5" s="2">
-        <f>IF(E5&lt;100,E5/10,10)</f>
-        <v>7.3599999999999994</v>
-      </c>
-      <c r="I5" s="2">
-        <f>G5/10</f>
-        <v>1.7391304347826086</v>
-      </c>
-      <c r="J5" s="2">
-        <f>SUM(H5:I5)/2</f>
-        <v>4.5495652173913044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>5+6+6</f>
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <f>B6*5</f>
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <v>74</v>
-      </c>
-      <c r="E6" s="1">
-        <f>D6/C6*100</f>
-        <v>87.058823529411768</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <f>F6/D6*100</f>
-        <v>5.4054054054054053</v>
-      </c>
-      <c r="H6" s="2">
-        <f>IF(E6&lt;100,E6/10,10)</f>
-        <v>8.7058823529411775</v>
-      </c>
-      <c r="I6" s="2">
-        <f>G6/10</f>
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="J6" s="2">
-        <f>SUM(H6:I6)/2</f>
-        <v>4.6232114467408589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <f>6+6+6+5+5+3</f>
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <f>B7*5</f>
-        <v>155</v>
-      </c>
-      <c r="D7">
-        <v>106</v>
-      </c>
-      <c r="E7" s="1">
-        <f>D7/C7*100</f>
-        <v>68.387096774193552</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3">
-        <f>F7/D7*100</f>
-        <v>28.30188679245283</v>
-      </c>
-      <c r="H7" s="2">
-        <f>IF(E7&lt;100,E7/10,10)</f>
-        <v>6.838709677419355</v>
-      </c>
-      <c r="I7" s="2">
-        <f>G7/10</f>
-        <v>2.8301886792452828</v>
-      </c>
-      <c r="J7" s="2">
-        <f>SUM(H7:I7)/2</f>
-        <v>4.8344491783323189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <f>6+6+6+3</f>
-        <v>21</v>
-      </c>
       <c r="C8">
         <f>B8*5</f>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D8">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1">
         <f>D8/C8*100</f>
-        <v>65.714285714285708</v>
+        <v>76.8</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3">
         <f>F8/D8*100</f>
-        <v>37.681159420289859</v>
+        <v>38.541666666666671</v>
       </c>
       <c r="H8" s="2">
         <f>IF(E8&lt;100,E8/10,10)</f>
-        <v>6.5714285714285712</v>
+        <v>7.68</v>
       </c>
       <c r="I8" s="2">
         <f>G8/10</f>
-        <v>3.7681159420289858</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="J8" s="2">
         <f>SUM(H8:I8)/2</f>
-        <v>5.1697722567287787</v>
+        <v>5.7670833333333338</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,30 +801,30 @@
         <v>185</v>
       </c>
       <c r="D9">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1">
         <f>D9/C9*100</f>
-        <v>100</v>
+        <v>92.972972972972983</v>
       </c>
       <c r="F9">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3">
         <f>F9/D9*100</f>
-        <v>78.378378378378372</v>
+        <v>32.558139534883722</v>
       </c>
       <c r="H9" s="2">
         <f>IF(E9&lt;100,E9/10,10)</f>
-        <v>10</v>
+        <v>9.2972972972972983</v>
       </c>
       <c r="I9" s="2">
         <f>G9/10</f>
-        <v>7.8378378378378368</v>
+        <v>3.2558139534883721</v>
       </c>
       <c r="J9" s="2">
         <f>SUM(H9:I9)/2</f>
-        <v>8.9189189189189193</v>
+        <v>6.2765556253928354</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
